--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_14_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_14_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52219.87462788756</v>
+        <v>10391755.05094961</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>52219.87462788756</v>
+        <v>10391755.05094961</v>
       </c>
     </row>
     <row r="9">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>959277560.3539597</v>
+        <v>39619429.2414883</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8271.282145150672</v>
+        <v>919830.3965424763</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15696.4029865489</v>
+        <v>1706941.046750347</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23121.52382794713</v>
+        <v>2494051.69695822</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30852.18290618415</v>
+        <v>3296385.726560032</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>38506.34259048178</v>
+        <v>4083496.376767904</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>46160.5022747794</v>
+        <v>4870607.026975775</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>53814.66195907701</v>
+        <v>5657717.677183644</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>61468.82164337463</v>
+        <v>6444828.327391512</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>69122.98132767226</v>
+        <v>7231938.977599381</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>76777.14101196987</v>
+        <v>8019049.627807249</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>84431.30069626748</v>
+        <v>8806160.278015124</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>91801.34852878904</v>
+        <v>9578047.548829062</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>99247.89575524996</v>
+        <v>10365158.19903694</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>106694.4429817109</v>
+        <v>11152268.84924482</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>114140.9902081718</v>
+        <v>11939379.49945269</v>
       </c>
     </row>
   </sheetData>
